--- a/output/experiments/Aug2023_3/LOG-MPC-MSC-6h-bat-1-2.xlsx
+++ b/output/experiments/Aug2023_3/LOG-MPC-MSC-6h-bat-1-2.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\output\experiments\Aug2023_3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED6C957-1D32-40BB-9D59-28C571E56672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="122">
   <si>
     <t>status</t>
   </si>
@@ -166,9 +160,24 @@
     <t>bat_e_terminal_revenue</t>
   </si>
   <si>
+    <t>load_bld_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_bld_error_max_pos</t>
+  </si>
+  <si>
+    <t>load_pv_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_pv_error_max_pos</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -220,29 +229,164 @@
     <t>02-04</t>
   </si>
   <si>
+    <t>02-11</t>
+  </si>
+  <si>
+    <t>02-18</t>
+  </si>
+  <si>
+    <t>02-25</t>
+  </si>
+  <si>
+    <t>03-04</t>
+  </si>
+  <si>
     <t>flex</t>
   </si>
   <si>
     <t>unif</t>
   </si>
   <si>
-    <t>02-11</t>
-  </si>
-  <si>
-    <t>02-18</t>
-  </si>
-  <si>
-    <t>02-25</t>
-  </si>
-  <si>
-    <t>03-04</t>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-01-07-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-01-07-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-01-07-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-01-07-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-01-01-01-07-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-07-01-14-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-07-01-14-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-07-01-14-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-07-01-14-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-01-07-01-14-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-14-01-21-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-14-01-21-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-14-01-21-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-14-01-21-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-01-14-01-21-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-21-01-28-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-21-01-28-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-21-01-28-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-21-01-28-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-01-21-01-28-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-28-02-04-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-28-02-04-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-28-02-04-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-28-02-04-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-01-28-02-04-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-04-02-11-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-04-02-11-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-04-02-11-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-04-02-11-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-02-04-02-11-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-11-02-18-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-11-02-18-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-11-02-18-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-11-02-18-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-02-11-02-18-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-18-02-25-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-18-02-25-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-18-02-25-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-18-02-25-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-02-18-02-25-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-25-03-04-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-25-03-04-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-25-03-04-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-25-03-04-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-02-25-03-04-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,23 +445,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -359,7 +495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,27 +527,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,24 +561,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,18 +736,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD39" sqref="AD39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -793,46 +891,58 @@
       <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:53">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>438</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -847,48 +957,147 @@
         <v>0.6</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S2">
+        <v>221.6517772212094</v>
+      </c>
+      <c r="T2">
+        <v>5.989583333333333</v>
+      </c>
+      <c r="U2">
+        <v>177.5363473</v>
+      </c>
+      <c r="V2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2">
+        <v>221.6517772212094</v>
+      </c>
+      <c r="X2">
+        <v>203.6517772212094</v>
+      </c>
+      <c r="Y2">
+        <v>18</v>
+      </c>
+      <c r="Z2">
+        <v>18</v>
+      </c>
+      <c r="AA2">
+        <v>438</v>
+      </c>
+      <c r="AB2">
+        <v>6.892954720422655</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.130385354624567</v>
+      </c>
+      <c r="AF2">
+        <v>0.130385354624567</v>
+      </c>
+      <c r="AG2">
+        <v>0.1197969604656519</v>
+      </c>
+      <c r="AI2">
+        <v>59.2609828635207</v>
+      </c>
+      <c r="AJ2">
+        <v>157.151264417155</v>
+      </c>
+      <c r="AL2">
+        <v>18.86608695652174</v>
+      </c>
+      <c r="AM2">
+        <v>1525.035405913045</v>
+      </c>
+      <c r="AN2">
+        <v>174.9390878438332</v>
+      </c>
+      <c r="AO2">
+        <v>1699.974493756878</v>
+      </c>
+      <c r="AP2">
+        <v>619.731017037894</v>
+      </c>
+      <c r="AQ2">
+        <v>1113.812547880804</v>
+      </c>
+      <c r="AR2">
+        <v>7.043641032752297E-15</v>
+      </c>
+      <c r="AS2">
+        <v>157.151264417155</v>
+      </c>
+      <c r="AT2">
+        <v>5.367254466957251E-16</v>
+      </c>
+      <c r="AU2">
+        <v>98.76830477253451</v>
+      </c>
+      <c r="AV2">
+        <v>75.25096697769501</v>
+      </c>
+      <c r="AW2">
+        <v>12.76047005946635</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:53">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>438</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -903,48 +1112,147 @@
         <v>0.6</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S3">
+        <v>222.8433113089069</v>
+      </c>
+      <c r="T3">
+        <v>5.989583333333333</v>
+      </c>
+      <c r="U3">
+        <v>193.346878</v>
+      </c>
+      <c r="V3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3">
+        <v>222.8433113089069</v>
+      </c>
+      <c r="X3">
+        <v>204.8433113089069</v>
+      </c>
+      <c r="Y3">
+        <v>18</v>
+      </c>
+      <c r="Z3">
+        <v>18</v>
+      </c>
+      <c r="AA3">
+        <v>438</v>
+      </c>
+      <c r="AB3">
+        <v>6.892954720422655</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0.1312151354942769</v>
+      </c>
+      <c r="AF3">
+        <v>0.1312151354942769</v>
+      </c>
+      <c r="AG3">
+        <v>0.1206163321242133</v>
+      </c>
+      <c r="AI3">
+        <v>53.28709625075081</v>
+      </c>
+      <c r="AJ3">
+        <v>155.5586076702852</v>
+      </c>
+      <c r="AL3">
+        <v>18.86608695652174</v>
+      </c>
+      <c r="AM3">
+        <v>1525.035405913045</v>
+      </c>
+      <c r="AN3">
+        <v>173.2695226264418</v>
+      </c>
+      <c r="AO3">
+        <v>1698.304928539486</v>
+      </c>
+      <c r="AP3">
+        <v>619.731017037894</v>
+      </c>
+      <c r="AQ3">
+        <v>1099.533282614639</v>
+      </c>
+      <c r="AR3">
+        <v>0.8187304278261067</v>
+      </c>
+      <c r="AS3">
+        <v>155.6257672808437</v>
+      </c>
+      <c r="AT3">
+        <v>0.06715961055849509</v>
+      </c>
+      <c r="AU3">
+        <v>88.81182708458469</v>
+      </c>
+      <c r="AV3">
+        <v>23.602885542893</v>
+      </c>
+      <c r="AW3">
+        <v>4.002392612129099</v>
+      </c>
+      <c r="AX3">
+        <v>-8.965287800000006</v>
+      </c>
+      <c r="AY3">
+        <v>24.8487185</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:53">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -959,48 +1267,147 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S4">
+        <v>221.1332185334741</v>
+      </c>
+      <c r="T4">
+        <v>5.989583333333333</v>
+      </c>
+      <c r="U4">
+        <v>199.1065052</v>
+      </c>
+      <c r="V4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4">
+        <v>221.1332185334741</v>
+      </c>
+      <c r="X4">
+        <v>203.1332185334741</v>
+      </c>
+      <c r="Y4">
+        <v>18</v>
+      </c>
+      <c r="Z4">
+        <v>18</v>
+      </c>
+      <c r="AA4">
+        <v>438</v>
+      </c>
+      <c r="AB4">
+        <v>6.892954720422655</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.130208194545867</v>
+      </c>
+      <c r="AF4">
+        <v>0.130208194545867</v>
+      </c>
+      <c r="AG4">
+        <v>0.1196093911758033</v>
+      </c>
+      <c r="AI4">
+        <v>52.392370137901</v>
+      </c>
+      <c r="AJ4">
+        <v>154.4521739768478</v>
+      </c>
+      <c r="AL4">
+        <v>18.86608695652174</v>
+      </c>
+      <c r="AM4">
+        <v>1525.035405913045</v>
+      </c>
+      <c r="AN4">
+        <v>173.2695226264419</v>
+      </c>
+      <c r="AO4">
+        <v>1698.304928539486</v>
+      </c>
+      <c r="AP4">
+        <v>619.731017037894</v>
+      </c>
+      <c r="AQ4">
+        <v>1110.648695968657</v>
+      </c>
+      <c r="AR4">
+        <v>5.932304654594365</v>
+      </c>
+      <c r="AS4">
+        <v>154.908987943486</v>
+      </c>
+      <c r="AT4">
+        <v>0.4568139666382365</v>
+      </c>
+      <c r="AU4">
+        <v>87.32061689650168</v>
+      </c>
+      <c r="AV4">
+        <v>21.88640680621237</v>
+      </c>
+      <c r="AW4">
+        <v>3.711325581274652</v>
+      </c>
+      <c r="AX4">
+        <v>-11.32715959849124</v>
+      </c>
+      <c r="AY4">
+        <v>9.314902885508658</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:53">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1015,48 +1422,147 @@
         <v>0.6</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S5">
+        <v>234.3035949715652</v>
+      </c>
+      <c r="T5">
+        <v>5.989583333333333</v>
+      </c>
+      <c r="U5">
+        <v>198.6433624</v>
+      </c>
+      <c r="V5" t="s">
+        <v>80</v>
+      </c>
+      <c r="W5">
+        <v>234.3035949715652</v>
+      </c>
+      <c r="X5">
+        <v>216.3035949715652</v>
+      </c>
+      <c r="Y5">
+        <v>18</v>
+      </c>
+      <c r="Z5">
+        <v>18</v>
+      </c>
+      <c r="AA5">
+        <v>438</v>
+      </c>
+      <c r="AB5">
+        <v>6.892954720422655</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0.1379632073334807</v>
+      </c>
+      <c r="AF5">
+        <v>0.1379632073334807</v>
+      </c>
+      <c r="AG5">
+        <v>0.127364403963417</v>
+      </c>
+      <c r="AI5">
+        <v>66.27619264359917</v>
+      </c>
+      <c r="AJ5">
+        <v>152.38790272113</v>
+      </c>
+      <c r="AL5">
+        <v>18.86608695652174</v>
+      </c>
+      <c r="AM5">
+        <v>1525.035405913045</v>
+      </c>
+      <c r="AN5">
+        <v>173.2695226264419</v>
+      </c>
+      <c r="AO5">
+        <v>1698.304928539486</v>
+      </c>
+      <c r="AP5">
+        <v>619.731017037894</v>
+      </c>
+      <c r="AQ5">
+        <v>1101.787997939222</v>
+      </c>
+      <c r="AR5">
+        <v>8.897230778213429E-16</v>
+      </c>
+      <c r="AS5">
+        <v>152.38790272113</v>
+      </c>
+      <c r="AT5">
+        <v>8.505752623972035E-17</v>
+      </c>
+      <c r="AU5">
+        <v>110.4603210726653</v>
+      </c>
+      <c r="AV5">
+        <v>13.92032866414979</v>
+      </c>
+      <c r="AW5">
+        <v>2.360500393163926</v>
+      </c>
+      <c r="AX5">
+        <v>-8.664800000000007</v>
+      </c>
+      <c r="AY5">
+        <v>11.7343</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:53">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <v>438</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1071,48 +1577,147 @@
         <v>0.6</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S6">
+        <v>277.307026472493</v>
+      </c>
+      <c r="T6">
+        <v>5.989583333333333</v>
+      </c>
+      <c r="U6">
+        <v>120.3596047</v>
+      </c>
+      <c r="V6" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6">
+        <v>277.307026472493</v>
+      </c>
+      <c r="X6">
+        <v>259.307026472493</v>
+      </c>
+      <c r="Y6">
+        <v>18</v>
+      </c>
+      <c r="Z6">
+        <v>18</v>
+      </c>
+      <c r="AA6">
+        <v>438</v>
+      </c>
+      <c r="AB6">
+        <v>6.892954720422655</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0.1630376359322829</v>
+      </c>
+      <c r="AF6">
+        <v>0.1630376359322829</v>
+      </c>
+      <c r="AG6">
+        <v>0.1524548624479183</v>
+      </c>
+      <c r="AI6">
+        <v>57.34275199895825</v>
+      </c>
+      <c r="AJ6">
+        <v>201.9642744735347</v>
+      </c>
+      <c r="AL6">
+        <v>18.86608695652174</v>
+      </c>
+      <c r="AM6">
+        <v>1525.035405913045</v>
+      </c>
+      <c r="AN6">
+        <v>175.8419705699623</v>
+      </c>
+      <c r="AO6">
+        <v>1700.877376483007</v>
+      </c>
+      <c r="AP6">
+        <v>619.731017037894</v>
+      </c>
+      <c r="AQ6">
+        <v>1085.606623120482</v>
+      </c>
+      <c r="AR6">
+        <v>4.615438466198216E-15</v>
+      </c>
+      <c r="AS6">
+        <v>201.9642744735347</v>
+      </c>
+      <c r="AT6">
+        <v>3.266507064836333E-16</v>
+      </c>
+      <c r="AU6">
+        <v>95.57125333159709</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:53">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H7">
         <v>438</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1127,48 +1732,147 @@
         <v>0.6</v>
       </c>
       <c r="R7" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S7">
+        <v>342.0331361324225</v>
+      </c>
+      <c r="T7">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U7">
+        <v>367.9829291999999</v>
+      </c>
+      <c r="V7" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7">
+        <v>342.0331361324225</v>
+      </c>
+      <c r="X7">
+        <v>324.0331361324225</v>
+      </c>
+      <c r="Y7">
+        <v>18</v>
+      </c>
+      <c r="Z7">
+        <v>18</v>
+      </c>
+      <c r="AA7">
+        <v>438</v>
+      </c>
+      <c r="AB7">
+        <v>5.680546248446244</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0.1492703824194338</v>
+      </c>
+      <c r="AF7">
+        <v>0.1492703824194338</v>
+      </c>
+      <c r="AG7">
+        <v>0.1414148076235767</v>
+      </c>
+      <c r="AI7">
+        <v>87.43371629001288</v>
+      </c>
+      <c r="AJ7">
+        <v>243.6071640630639</v>
+      </c>
+      <c r="AL7">
+        <v>47.78539493293592</v>
+      </c>
+      <c r="AM7">
+        <v>1850.526259314457</v>
+      </c>
+      <c r="AN7">
+        <v>440.8401228747834</v>
+      </c>
+      <c r="AO7">
+        <v>2291.366382189241</v>
+      </c>
+      <c r="AP7">
+        <v>581.7276048095998</v>
+      </c>
+      <c r="AQ7">
+        <v>1738.195333747213</v>
+      </c>
+      <c r="AR7">
+        <v>5.464084227305689E-15</v>
+      </c>
+      <c r="AS7">
+        <v>243.6071640630639</v>
+      </c>
+      <c r="AT7">
+        <v>4.677510242026102E-16</v>
+      </c>
+      <c r="AU7">
+        <v>145.7228604833548</v>
+      </c>
+      <c r="AV7">
+        <v>41.32709063156134</v>
+      </c>
+      <c r="AW7">
+        <v>7.007744220654294</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:53">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1183,48 +1887,147 @@
         <v>0.6</v>
       </c>
       <c r="R8" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S8">
+        <v>336.2313155891365</v>
+      </c>
+      <c r="T8">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U8">
+        <v>420.038319</v>
+      </c>
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8">
+        <v>336.2313155891365</v>
+      </c>
+      <c r="X8">
+        <v>318.2313155891365</v>
+      </c>
+      <c r="Y8">
+        <v>18</v>
+      </c>
+      <c r="Z8">
+        <v>18</v>
+      </c>
+      <c r="AA8">
+        <v>438</v>
+      </c>
+      <c r="AB8">
+        <v>5.680546248446244</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0.1467383471288825</v>
+      </c>
+      <c r="AF8">
+        <v>0.1467383471288825</v>
+      </c>
+      <c r="AG8">
+        <v>0.1388827723330255</v>
+      </c>
+      <c r="AI8">
+        <v>84.30080605862238</v>
+      </c>
+      <c r="AJ8">
+        <v>245.6304399618133</v>
+      </c>
+      <c r="AL8">
+        <v>47.78539493293592</v>
+      </c>
+      <c r="AM8">
+        <v>1850.526259314457</v>
+      </c>
+      <c r="AN8">
+        <v>440.8401228747834</v>
+      </c>
+      <c r="AO8">
+        <v>2291.366382189241</v>
+      </c>
+      <c r="AP8">
+        <v>581.7276048095998</v>
+      </c>
+      <c r="AQ8">
+        <v>1740.31810317333</v>
+      </c>
+      <c r="AR8">
+        <v>2.287291071895405E-15</v>
+      </c>
+      <c r="AS8">
+        <v>245.6304399618133</v>
+      </c>
+      <c r="AT8">
+        <v>3.211356664941148E-16</v>
+      </c>
+      <c r="AU8">
+        <v>140.5013434310373</v>
+      </c>
+      <c r="AV8">
+        <v>68.99853506241658</v>
+      </c>
+      <c r="AW8">
+        <v>11.69993043129915</v>
+      </c>
+      <c r="AX8">
+        <v>-8.867199500000005</v>
+      </c>
+      <c r="AY8">
+        <v>25.5533964</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:53">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H9">
         <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1239,48 +2042,147 @@
         <v>0.6</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S9">
+        <v>338.9428992751281</v>
+      </c>
+      <c r="T9">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U9">
+        <v>431.3976815999999</v>
+      </c>
+      <c r="V9" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9">
+        <v>338.9428992751281</v>
+      </c>
+      <c r="X9">
+        <v>320.9428992751281</v>
+      </c>
+      <c r="Y9">
+        <v>18</v>
+      </c>
+      <c r="Z9">
+        <v>18</v>
+      </c>
+      <c r="AA9">
+        <v>438</v>
+      </c>
+      <c r="AB9">
+        <v>5.680546248446244</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0.1479448324347495</v>
+      </c>
+      <c r="AF9">
+        <v>0.1479448324347495</v>
+      </c>
+      <c r="AG9">
+        <v>0.1400880312168433</v>
+      </c>
+      <c r="AI9">
+        <v>75.49152229570885</v>
+      </c>
+      <c r="AJ9">
+        <v>255.1048641373876</v>
+      </c>
+      <c r="AL9">
+        <v>47.78539493293592</v>
+      </c>
+      <c r="AM9">
+        <v>1850.526259314457</v>
+      </c>
+      <c r="AN9">
+        <v>440.4824477630099</v>
+      </c>
+      <c r="AO9">
+        <v>2291.008707077467</v>
+      </c>
+      <c r="AP9">
+        <v>581.7276048095998</v>
+      </c>
+      <c r="AQ9">
+        <v>1734.82360968791</v>
+      </c>
+      <c r="AR9">
+        <v>2.160219345678993E-15</v>
+      </c>
+      <c r="AS9">
+        <v>255.1048641373876</v>
+      </c>
+      <c r="AT9">
+        <v>2.869787864871434E-16</v>
+      </c>
+      <c r="AU9">
+        <v>125.8192038261814</v>
+      </c>
+      <c r="AV9">
+        <v>56.92995151166088</v>
+      </c>
+      <c r="AW9">
+        <v>9.65348715796833</v>
+      </c>
+      <c r="AX9">
+        <v>-7.801898850650531</v>
+      </c>
+      <c r="AY9">
+        <v>17.66044416152094</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:53">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H10">
         <v>438</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1295,48 +2197,147 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S10">
+        <v>353.4490619340411</v>
+      </c>
+      <c r="T10">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U10">
+        <v>371.3455194999999</v>
+      </c>
+      <c r="V10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10">
+        <v>353.4490619340411</v>
+      </c>
+      <c r="X10">
+        <v>335.4490619340411</v>
+      </c>
+      <c r="Y10">
+        <v>18</v>
+      </c>
+      <c r="Z10">
+        <v>18</v>
+      </c>
+      <c r="AA10">
+        <v>438</v>
+      </c>
+      <c r="AB10">
+        <v>5.680546248446244</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0.1542766122372881</v>
+      </c>
+      <c r="AF10">
+        <v>0.1542766122372881</v>
+      </c>
+      <c r="AG10">
+        <v>0.1464198110193819</v>
+      </c>
+      <c r="AI10">
+        <v>96.67665105716858</v>
+      </c>
+      <c r="AJ10">
+        <v>238.7724108768726</v>
+      </c>
+      <c r="AL10">
+        <v>47.78539493293592</v>
+      </c>
+      <c r="AM10">
+        <v>1850.526259314457</v>
+      </c>
+      <c r="AN10">
+        <v>440.4824477630096</v>
+      </c>
+      <c r="AO10">
+        <v>2291.008707077467</v>
+      </c>
+      <c r="AP10">
+        <v>581.7276048095998</v>
+      </c>
+      <c r="AQ10">
+        <v>1733.286680160111</v>
+      </c>
+      <c r="AR10">
+        <v>0.03917615499254775</v>
+      </c>
+      <c r="AS10">
+        <v>238.775396099883</v>
+      </c>
+      <c r="AT10">
+        <v>0.002985223010432251</v>
+      </c>
+      <c r="AU10">
+        <v>161.1277517619476</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>-15.4931</v>
+      </c>
+      <c r="AY10">
+        <v>15.4513</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:53">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1351,48 +2352,147 @@
         <v>0.6</v>
       </c>
       <c r="R11" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S11">
+        <v>412.7723998207293</v>
+      </c>
+      <c r="T11">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U11">
+        <v>124.9773413</v>
+      </c>
+      <c r="V11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11">
+        <v>412.7723998207293</v>
+      </c>
+      <c r="X11">
+        <v>394.7723998207293</v>
+      </c>
+      <c r="Y11">
+        <v>18</v>
+      </c>
+      <c r="Z11">
+        <v>18</v>
+      </c>
+      <c r="AA11">
+        <v>438</v>
+      </c>
+      <c r="AB11">
+        <v>5.680546248446244</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0.180112365716017</v>
+      </c>
+      <c r="AF11">
+        <v>0.180112365716017</v>
+      </c>
+      <c r="AG11">
+        <v>0.1722581036958423</v>
+      </c>
+      <c r="AI11">
+        <v>86.07343164950291</v>
+      </c>
+      <c r="AJ11">
+        <v>308.6989681712265</v>
+      </c>
+      <c r="AL11">
+        <v>47.78539493293592</v>
+      </c>
+      <c r="AM11">
+        <v>1850.526259314457</v>
+      </c>
+      <c r="AN11">
+        <v>441.2231060319913</v>
+      </c>
+      <c r="AO11">
+        <v>2291.749365346448</v>
+      </c>
+      <c r="AP11">
+        <v>581.7276048095998</v>
+      </c>
+      <c r="AQ11">
+        <v>1710.438053663519</v>
+      </c>
+      <c r="AR11">
+        <v>8.259662204066738E-16</v>
+      </c>
+      <c r="AS11">
+        <v>308.6989681712265</v>
+      </c>
+      <c r="AT11">
+        <v>5.824967929760298E-17</v>
+      </c>
+      <c r="AU11">
+        <v>143.4557194158382</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:53">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1407,48 +2507,147 @@
         <v>0.6</v>
       </c>
       <c r="R12" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S12">
+        <v>380.9510923817822</v>
+      </c>
+      <c r="T12">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U12">
+        <v>401.1661437999999</v>
+      </c>
+      <c r="V12" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12">
+        <v>380.9510923817822</v>
+      </c>
+      <c r="X12">
+        <v>362.9510923817822</v>
+      </c>
+      <c r="Y12">
+        <v>18</v>
+      </c>
+      <c r="Z12">
+        <v>18</v>
+      </c>
+      <c r="AA12">
+        <v>438</v>
+      </c>
+      <c r="AB12">
+        <v>5.548848590128511</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0.1625699816587197</v>
+      </c>
+      <c r="AF12">
+        <v>0.1625699816587197</v>
+      </c>
+      <c r="AG12">
+        <v>0.1548885240428316</v>
+      </c>
+      <c r="AI12">
+        <v>90.70091106122477</v>
+      </c>
+      <c r="AJ12">
+        <v>272.2501813205574</v>
+      </c>
+      <c r="AL12">
+        <v>50.93293591654248</v>
+      </c>
+      <c r="AM12">
+        <v>1894.447078390464</v>
+      </c>
+      <c r="AN12">
+        <v>448.8581769518538</v>
+      </c>
+      <c r="AO12">
+        <v>2343.305255342318</v>
+      </c>
+      <c r="AP12">
+        <v>414.3330474731422</v>
+      </c>
+      <c r="AQ12">
+        <v>1950.079752870811</v>
+      </c>
+      <c r="AR12">
+        <v>9.403307740014441E-15</v>
+      </c>
+      <c r="AS12">
+        <v>272.2501813205574</v>
+      </c>
+      <c r="AT12">
+        <v>8.304391451694914E-16</v>
+      </c>
+      <c r="AU12">
+        <v>151.1681851020413</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:53">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H13">
         <v>438</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1463,48 +2662,147 @@
         <v>0.6</v>
       </c>
       <c r="R13" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S13">
+        <v>382.4164376161345</v>
+      </c>
+      <c r="T13">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U13">
+        <v>426.3585560000001</v>
+      </c>
+      <c r="V13" t="s">
+        <v>88</v>
+      </c>
+      <c r="W13">
+        <v>382.4164376161345</v>
+      </c>
+      <c r="X13">
+        <v>364.4164376161345</v>
+      </c>
+      <c r="Y13">
+        <v>18</v>
+      </c>
+      <c r="Z13">
+        <v>18</v>
+      </c>
+      <c r="AA13">
+        <v>438</v>
+      </c>
+      <c r="AB13">
+        <v>5.548848590128511</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0.1631953142870709</v>
+      </c>
+      <c r="AF13">
+        <v>0.1631953142870709</v>
+      </c>
+      <c r="AG13">
+        <v>0.1555138566711828</v>
+      </c>
+      <c r="AI13">
+        <v>91.32994000000002</v>
+      </c>
+      <c r="AJ13">
+        <v>273.0864976161345</v>
+      </c>
+      <c r="AL13">
+        <v>50.93293591654248</v>
+      </c>
+      <c r="AM13">
+        <v>1894.447078390464</v>
+      </c>
+      <c r="AN13">
+        <v>448.8581769518537</v>
+      </c>
+      <c r="AO13">
+        <v>2343.305255342318</v>
+      </c>
+      <c r="AP13">
+        <v>414.3330474731422</v>
+      </c>
+      <c r="AQ13">
+        <v>1950.217401632025</v>
+      </c>
+      <c r="AR13">
+        <v>0.4094204566318899</v>
+      </c>
+      <c r="AS13">
+        <v>273.1176954549298</v>
+      </c>
+      <c r="AT13">
+        <v>0.03119783879535007</v>
+      </c>
+      <c r="AU13">
+        <v>152.2165666666667</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>-8.043621799999997</v>
+      </c>
+      <c r="AY13">
+        <v>14.9186187</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:53">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H14">
         <v>438</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1519,48 +2817,147 @@
         <v>0.6</v>
       </c>
       <c r="R14" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S14">
+        <v>391.6573863090114</v>
+      </c>
+      <c r="T14">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U14">
+        <v>419.141208</v>
+      </c>
+      <c r="V14" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14">
+        <v>391.6573863090114</v>
+      </c>
+      <c r="X14">
+        <v>373.6573863090114</v>
+      </c>
+      <c r="Y14">
+        <v>18</v>
+      </c>
+      <c r="Z14">
+        <v>18</v>
+      </c>
+      <c r="AA14">
+        <v>438</v>
+      </c>
+      <c r="AB14">
+        <v>5.548848590128511</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0.1671388673823449</v>
+      </c>
+      <c r="AF14">
+        <v>0.1671388673823449</v>
+      </c>
+      <c r="AG14">
+        <v>0.1594574097664567</v>
+      </c>
+      <c r="AI14">
+        <v>91.52670977235967</v>
+      </c>
+      <c r="AJ14">
+        <v>282.1306765366518</v>
+      </c>
+      <c r="AL14">
+        <v>50.93293591654248</v>
+      </c>
+      <c r="AM14">
+        <v>1894.447078390464</v>
+      </c>
+      <c r="AN14">
+        <v>448.8581769518539</v>
+      </c>
+      <c r="AO14">
+        <v>2343.305255342318</v>
+      </c>
+      <c r="AP14">
+        <v>414.3330474731422</v>
+      </c>
+      <c r="AQ14">
+        <v>1946.115381943453</v>
+      </c>
+      <c r="AR14">
+        <v>0.3009969737760595</v>
+      </c>
+      <c r="AS14">
+        <v>282.1536125060535</v>
+      </c>
+      <c r="AT14">
+        <v>0.02293596940173577</v>
+      </c>
+      <c r="AU14">
+        <v>152.5445162872661</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>-6.828283330642805</v>
+      </c>
+      <c r="AY14">
+        <v>15.93585526183875</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:53">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <v>438</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -1575,48 +2972,147 @@
         <v>0.6</v>
       </c>
       <c r="R15" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S15">
+        <v>394.7825257247701</v>
+      </c>
+      <c r="T15">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U15">
+        <v>396.6271878</v>
+      </c>
+      <c r="V15" t="s">
+        <v>90</v>
+      </c>
+      <c r="W15">
+        <v>394.7825257247701</v>
+      </c>
+      <c r="X15">
+        <v>376.7825257247701</v>
+      </c>
+      <c r="Y15">
+        <v>18</v>
+      </c>
+      <c r="Z15">
+        <v>18</v>
+      </c>
+      <c r="AA15">
+        <v>438</v>
+      </c>
+      <c r="AB15">
+        <v>5.548848590128511</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0.1684725132693388</v>
+      </c>
+      <c r="AF15">
+        <v>0.1684725132693388</v>
+      </c>
+      <c r="AG15">
+        <v>0.1607910556534507</v>
+      </c>
+      <c r="AI15">
+        <v>103.36296</v>
+      </c>
+      <c r="AJ15">
+        <v>273.4195657247701</v>
+      </c>
+      <c r="AL15">
+        <v>50.93293591654248</v>
+      </c>
+      <c r="AM15">
+        <v>1894.447078390464</v>
+      </c>
+      <c r="AN15">
+        <v>448.8581769518537</v>
+      </c>
+      <c r="AO15">
+        <v>2343.305255342318</v>
+      </c>
+      <c r="AP15">
+        <v>414.3330474731422</v>
+      </c>
+      <c r="AQ15">
+        <v>1950.455936625566</v>
+      </c>
+      <c r="AR15">
+        <v>0.2467087441696391</v>
+      </c>
+      <c r="AS15">
+        <v>273.4383649310759</v>
+      </c>
+      <c r="AT15">
+        <v>0.01879920630572665</v>
+      </c>
+      <c r="AU15">
+        <v>172.2716</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>-15.756</v>
+      </c>
+      <c r="AY15">
+        <v>14.5874</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:53">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>438</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1631,48 +3127,147 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S16">
+        <v>459.767581193536</v>
+      </c>
+      <c r="T16">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U16">
+        <v>127.6497259999996</v>
+      </c>
+      <c r="V16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W16">
+        <v>459.767581193536</v>
+      </c>
+      <c r="X16">
+        <v>441.767581193536</v>
+      </c>
+      <c r="Y16">
+        <v>18</v>
+      </c>
+      <c r="Z16">
+        <v>18</v>
+      </c>
+      <c r="AA16">
+        <v>438</v>
+      </c>
+      <c r="AB16">
+        <v>5.548848590128511</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0.1960846920055377</v>
+      </c>
+      <c r="AF16">
+        <v>0.1960846920055377</v>
+      </c>
+      <c r="AG16">
+        <v>0.1884079340076441</v>
+      </c>
+      <c r="AI16">
+        <v>103.6460500813454</v>
+      </c>
+      <c r="AJ16">
+        <v>338.1215311121906</v>
+      </c>
+      <c r="AL16">
+        <v>50.93293591654248</v>
+      </c>
+      <c r="AM16">
+        <v>1894.447078390464</v>
+      </c>
+      <c r="AN16">
+        <v>450.2927199643788</v>
+      </c>
+      <c r="AO16">
+        <v>2344.739798354843</v>
+      </c>
+      <c r="AP16">
+        <v>414.3330474731422</v>
+      </c>
+      <c r="AQ16">
+        <v>1932.060420014892</v>
+      </c>
+      <c r="AR16">
+        <v>2.541434524328227E-15</v>
+      </c>
+      <c r="AS16">
+        <v>338.1215311121906</v>
+      </c>
+      <c r="AT16">
+        <v>1.845081464662293E-16</v>
+      </c>
+      <c r="AU16">
+        <v>172.7434168022423</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:53">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H17">
         <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>4</v>
@@ -1687,48 +3282,147 @@
         <v>0.6</v>
       </c>
       <c r="R17" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S17">
+        <v>291.4020463745651</v>
+      </c>
+      <c r="T17">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U17">
+        <v>387.0390023</v>
+      </c>
+      <c r="V17" t="s">
+        <v>92</v>
+      </c>
+      <c r="W17">
+        <v>291.4020463745651</v>
+      </c>
+      <c r="X17">
+        <v>273.4020463745651</v>
+      </c>
+      <c r="Y17">
+        <v>18</v>
+      </c>
+      <c r="Z17">
+        <v>18</v>
+      </c>
+      <c r="AA17">
+        <v>438</v>
+      </c>
+      <c r="AB17">
+        <v>5.702302753366801</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0.1285662257727931</v>
+      </c>
+      <c r="AF17">
+        <v>0.1285662257727931</v>
+      </c>
+      <c r="AG17">
+        <v>0.1206246478302153</v>
+      </c>
+      <c r="AI17">
+        <v>70.31054160598084</v>
+      </c>
+      <c r="AJ17">
+        <v>211.0496789325434</v>
+      </c>
+      <c r="AL17">
+        <v>47.49925484351714</v>
+      </c>
+      <c r="AM17">
+        <v>1843.465781222054</v>
+      </c>
+      <c r="AN17">
+        <v>423.0862982450805</v>
+      </c>
+      <c r="AO17">
+        <v>2266.552079467134</v>
+      </c>
+      <c r="AP17">
+        <v>807.5864404202908</v>
+      </c>
+      <c r="AQ17">
+        <v>1490.230119924805</v>
+      </c>
+      <c r="AR17">
+        <v>2.748918827290961E-14</v>
+      </c>
+      <c r="AS17">
+        <v>211.0496789325434</v>
+      </c>
+      <c r="AT17">
+        <v>2.998804185598101E-15</v>
+      </c>
+      <c r="AU17">
+        <v>117.1842360099681</v>
+      </c>
+      <c r="AV17">
+        <v>46.93210462310206</v>
+      </c>
+      <c r="AW17">
+        <v>7.958174163959064</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:53">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H18">
         <v>438</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N18">
         <v>4</v>
@@ -1743,48 +3437,147 @@
         <v>0.6</v>
       </c>
       <c r="R18" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S18">
+        <v>292.0364456764016</v>
+      </c>
+      <c r="T18">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U18">
+        <v>434.2996705</v>
+      </c>
+      <c r="V18" t="s">
+        <v>93</v>
+      </c>
+      <c r="W18">
+        <v>292.0364456764016</v>
+      </c>
+      <c r="X18">
+        <v>274.0364456764016</v>
+      </c>
+      <c r="Y18">
+        <v>18</v>
+      </c>
+      <c r="Z18">
+        <v>18</v>
+      </c>
+      <c r="AA18">
+        <v>438</v>
+      </c>
+      <c r="AB18">
+        <v>5.702302753366801</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0.1288461219673625</v>
+      </c>
+      <c r="AF18">
+        <v>0.1288461219673625</v>
+      </c>
+      <c r="AG18">
+        <v>0.1209045440247847</v>
+      </c>
+      <c r="AI18">
+        <v>69.66018046546931</v>
+      </c>
+      <c r="AJ18">
+        <v>212.1387355581309</v>
+      </c>
+      <c r="AL18">
+        <v>47.49925484351714</v>
+      </c>
+      <c r="AM18">
+        <v>1843.465781222054</v>
+      </c>
+      <c r="AN18">
+        <v>423.0862982450807</v>
+      </c>
+      <c r="AO18">
+        <v>2266.552079467135</v>
+      </c>
+      <c r="AP18">
+        <v>807.5864404202908</v>
+      </c>
+      <c r="AQ18">
+        <v>1487.090812694658</v>
+      </c>
+      <c r="AR18">
+        <v>0.1856389352348309</v>
+      </c>
+      <c r="AS18">
+        <v>212.1528812449959</v>
+      </c>
+      <c r="AT18">
+        <v>0.01414568686489411</v>
+      </c>
+      <c r="AU18">
+        <v>116.1003007757822</v>
+      </c>
+      <c r="AV18">
+        <v>45.77797155009988</v>
+      </c>
+      <c r="AW18">
+        <v>7.762470347198724</v>
+      </c>
+      <c r="AX18">
+        <v>-9.461499599999996</v>
+      </c>
+      <c r="AY18">
+        <v>19.3730327</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:53">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H19">
         <v>438</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N19">
         <v>4</v>
@@ -1799,48 +3592,147 @@
         <v>0.6</v>
       </c>
       <c r="R19" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S19">
+        <v>303.1260922188171</v>
+      </c>
+      <c r="T19">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U19">
+        <v>455.4159104</v>
+      </c>
+      <c r="V19" t="s">
+        <v>94</v>
+      </c>
+      <c r="W19">
+        <v>303.1260922188171</v>
+      </c>
+      <c r="X19">
+        <v>285.1260922188171</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+      <c r="Z19">
+        <v>18</v>
+      </c>
+      <c r="AA19">
+        <v>438</v>
+      </c>
+      <c r="AB19">
+        <v>5.702302753366801</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0.1337388604324865</v>
+      </c>
+      <c r="AF19">
+        <v>0.1337388604324865</v>
+      </c>
+      <c r="AG19">
+        <v>0.1257972824899087</v>
+      </c>
+      <c r="AI19">
+        <v>67.92922001447434</v>
+      </c>
+      <c r="AJ19">
+        <v>217.1968722043428</v>
+      </c>
+      <c r="AL19">
+        <v>47.49925484351714</v>
+      </c>
+      <c r="AM19">
+        <v>1843.465781222054</v>
+      </c>
+      <c r="AN19">
+        <v>423.0862982450805</v>
+      </c>
+      <c r="AO19">
+        <v>2266.552079467134</v>
+      </c>
+      <c r="AP19">
+        <v>807.5864404202908</v>
+      </c>
+      <c r="AQ19">
+        <v>1479.016417202716</v>
+      </c>
+      <c r="AR19">
+        <v>0.4443193164224385</v>
+      </c>
+      <c r="AS19">
+        <v>217.2307293362542</v>
+      </c>
+      <c r="AT19">
+        <v>0.03385713191138984</v>
+      </c>
+      <c r="AU19">
+        <v>113.2153666907906</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>-8.013995103816498</v>
+      </c>
+      <c r="AY19">
+        <v>16.34677885675575</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:53">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H20">
         <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N20">
         <v>4</v>
@@ -1855,48 +3747,147 @@
         <v>0.6</v>
       </c>
       <c r="R20" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S20">
+        <v>307.6009591505872</v>
+      </c>
+      <c r="T20">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U20">
+        <v>406.5372713000002</v>
+      </c>
+      <c r="V20" t="s">
+        <v>95</v>
+      </c>
+      <c r="W20">
+        <v>307.6009591505872</v>
+      </c>
+      <c r="X20">
+        <v>289.6009591505872</v>
+      </c>
+      <c r="Y20">
+        <v>18</v>
+      </c>
+      <c r="Z20">
+        <v>18</v>
+      </c>
+      <c r="AA20">
+        <v>438</v>
+      </c>
+      <c r="AB20">
+        <v>5.702302753366801</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0.1357131662392263</v>
+      </c>
+      <c r="AF20">
+        <v>0.1357131662392263</v>
+      </c>
+      <c r="AG20">
+        <v>0.1277715882966485</v>
+      </c>
+      <c r="AI20">
+        <v>79.12222690801408</v>
+      </c>
+      <c r="AJ20">
+        <v>210.4787322425731</v>
+      </c>
+      <c r="AL20">
+        <v>47.49925484351714</v>
+      </c>
+      <c r="AM20">
+        <v>1843.465781222054</v>
+      </c>
+      <c r="AN20">
+        <v>423.0862982450805</v>
+      </c>
+      <c r="AO20">
+        <v>2266.552079467134</v>
+      </c>
+      <c r="AP20">
+        <v>807.5864404202908</v>
+      </c>
+      <c r="AQ20">
+        <v>1483.175706934263</v>
+      </c>
+      <c r="AR20">
+        <v>0.2209550284926709</v>
+      </c>
+      <c r="AS20">
+        <v>210.4955690157443</v>
+      </c>
+      <c r="AT20">
+        <v>0.01683677317114157</v>
+      </c>
+      <c r="AU20">
+        <v>131.8703781800235</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>-13.7085</v>
+      </c>
+      <c r="AY20">
+        <v>16.2216</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:53">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <v>438</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N21">
         <v>4</v>
@@ -1911,48 +3902,147 @@
         <v>0.6</v>
       </c>
       <c r="R21" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S21">
+        <v>376.898132664958</v>
+      </c>
+      <c r="T21">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U21">
+        <v>144.1308367000001</v>
+      </c>
+      <c r="V21" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21">
+        <v>376.898132664958</v>
+      </c>
+      <c r="X21">
+        <v>358.898132664958</v>
+      </c>
+      <c r="Y21">
+        <v>18</v>
+      </c>
+      <c r="Z21">
+        <v>18</v>
+      </c>
+      <c r="AA21">
+        <v>438</v>
+      </c>
+      <c r="AB21">
+        <v>5.702302753366801</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0.1662869942761548</v>
+      </c>
+      <c r="AF21">
+        <v>0.1662869942761548</v>
+      </c>
+      <c r="AG21">
+        <v>0.158345416333577</v>
+      </c>
+      <c r="AI21">
+        <v>84.21142624200444</v>
+      </c>
+      <c r="AJ21">
+        <v>274.6867064229536</v>
+      </c>
+      <c r="AL21">
+        <v>47.49925484351714</v>
+      </c>
+      <c r="AM21">
+        <v>1843.465781222054</v>
+      </c>
+      <c r="AN21">
+        <v>423.0862982450805</v>
+      </c>
+      <c r="AO21">
+        <v>2266.552079467134</v>
+      </c>
+      <c r="AP21">
+        <v>807.5864404202908</v>
+      </c>
+      <c r="AQ21">
+        <v>1462.392609954891</v>
+      </c>
+      <c r="AR21">
+        <v>5.209940774872866E-15</v>
+      </c>
+      <c r="AS21">
+        <v>274.6867064229536</v>
+      </c>
+      <c r="AT21">
+        <v>4.176593497281009E-16</v>
+      </c>
+      <c r="AU21">
+        <v>140.3523770700074</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:53">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H22">
         <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N22">
         <v>5</v>
@@ -1967,48 +4057,147 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S22">
+        <v>344.516298623751</v>
+      </c>
+      <c r="T22">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U22">
+        <v>395.4109865999999</v>
+      </c>
+      <c r="V22" t="s">
+        <v>97</v>
+      </c>
+      <c r="W22">
+        <v>344.516298623751</v>
+      </c>
+      <c r="X22">
+        <v>326.516298623751</v>
+      </c>
+      <c r="Y22">
+        <v>18</v>
+      </c>
+      <c r="Z22">
+        <v>18</v>
+      </c>
+      <c r="AA22">
+        <v>438</v>
+      </c>
+      <c r="AB22">
+        <v>5.418483481116178</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0.1471145605067764</v>
+      </c>
+      <c r="AF22">
+        <v>0.1471145605067764</v>
+      </c>
+      <c r="AG22">
+        <v>0.1394282417471117</v>
+      </c>
+      <c r="AI22">
+        <v>77.94935018461835</v>
+      </c>
+      <c r="AJ22">
+        <v>257.2733661871504</v>
+      </c>
+      <c r="AL22">
+        <v>48.21460506706408</v>
+      </c>
+      <c r="AM22">
+        <v>1940.026215201192</v>
+      </c>
+      <c r="AN22">
+        <v>401.7970376227987</v>
+      </c>
+      <c r="AO22">
+        <v>2341.823252823991</v>
+      </c>
+      <c r="AP22">
+        <v>543.5811645410802</v>
+      </c>
+      <c r="AQ22">
+        <v>1828.246103029045</v>
+      </c>
+      <c r="AR22">
+        <v>8.196126340958533E-15</v>
+      </c>
+      <c r="AS22">
+        <v>257.2733661871504</v>
+      </c>
+      <c r="AT22">
+        <v>8.304010236516267E-16</v>
+      </c>
+      <c r="AU22">
+        <v>136.9986261902802</v>
+      </c>
+      <c r="AV22">
+        <v>51.34475574723134</v>
+      </c>
+      <c r="AW22">
+        <v>8.706417748017822</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H23">
         <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -2023,48 +4212,147 @@
         <v>0.6</v>
       </c>
       <c r="R23" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S23">
+        <v>342.2700360287337</v>
+      </c>
+      <c r="T23">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U23">
+        <v>430.7879802000002</v>
+      </c>
+      <c r="V23" t="s">
+        <v>98</v>
+      </c>
+      <c r="W23">
+        <v>342.2700360287337</v>
+      </c>
+      <c r="X23">
+        <v>324.2700360287337</v>
+      </c>
+      <c r="Y23">
+        <v>18</v>
+      </c>
+      <c r="Z23">
+        <v>18</v>
+      </c>
+      <c r="AA23">
+        <v>438</v>
+      </c>
+      <c r="AB23">
+        <v>5.418483481116178</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0.1461553665999312</v>
+      </c>
+      <c r="AF23">
+        <v>0.1461553665999312</v>
+      </c>
+      <c r="AG23">
+        <v>0.1384690478402665</v>
+      </c>
+      <c r="AI23">
+        <v>75.11919994289995</v>
+      </c>
+      <c r="AJ23">
+        <v>259.1278932213715</v>
+      </c>
+      <c r="AL23">
+        <v>48.21460506706408</v>
+      </c>
+      <c r="AM23">
+        <v>1940.026215201192</v>
+      </c>
+      <c r="AN23">
+        <v>401.7970376227984</v>
+      </c>
+      <c r="AO23">
+        <v>2341.823252823991</v>
+      </c>
+      <c r="AP23">
+        <v>543.5811645410802</v>
+      </c>
+      <c r="AQ23">
+        <v>1827.150904160302</v>
+      </c>
+      <c r="AR23">
+        <v>0.1780000453055155</v>
+      </c>
+      <c r="AS23">
+        <v>259.1414568248238</v>
+      </c>
+      <c r="AT23">
+        <v>0.01356360345228038</v>
+      </c>
+      <c r="AU23">
+        <v>131.0989869100461</v>
+      </c>
+      <c r="AV23">
+        <v>58.8381555453142</v>
+      </c>
+      <c r="AW23">
+        <v>9.97705713553774</v>
+      </c>
+      <c r="AX23">
+        <v>-5.774444099999997</v>
+      </c>
+      <c r="AY23">
+        <v>12.9104612</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H24">
         <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N24">
         <v>5</v>
@@ -2079,48 +4367,147 @@
         <v>0.6</v>
       </c>
       <c r="R24" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S24">
+        <v>348.7206603045746</v>
+      </c>
+      <c r="T24">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U24">
+        <v>434.1419719999999</v>
+      </c>
+      <c r="V24" t="s">
+        <v>99</v>
+      </c>
+      <c r="W24">
+        <v>348.7206603045746</v>
+      </c>
+      <c r="X24">
+        <v>330.7206603045746</v>
+      </c>
+      <c r="Y24">
+        <v>18</v>
+      </c>
+      <c r="Z24">
+        <v>18</v>
+      </c>
+      <c r="AA24">
+        <v>438</v>
+      </c>
+      <c r="AB24">
+        <v>5.418483481116178</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0.1489023166030276</v>
+      </c>
+      <c r="AF24">
+        <v>0.1489023166030276</v>
+      </c>
+      <c r="AG24">
+        <v>0.1412163891431703</v>
+      </c>
+      <c r="AI24">
+        <v>74.59302422983269</v>
+      </c>
+      <c r="AJ24">
+        <v>262.7533326820314</v>
+      </c>
+      <c r="AL24">
+        <v>48.21460506706408</v>
+      </c>
+      <c r="AM24">
+        <v>1940.026215201192</v>
+      </c>
+      <c r="AN24">
+        <v>401.9162626600568</v>
+      </c>
+      <c r="AO24">
+        <v>2341.942477861249</v>
+      </c>
+      <c r="AP24">
+        <v>543.5811645410802</v>
+      </c>
+      <c r="AQ24">
+        <v>1824.351244787938</v>
+      </c>
+      <c r="AR24">
+        <v>7.624303572984681E-16</v>
+      </c>
+      <c r="AS24">
+        <v>262.7533326820314</v>
+      </c>
+      <c r="AT24">
+        <v>1.026231260923738E-16</v>
+      </c>
+      <c r="AU24">
+        <v>131.0548894809625</v>
+      </c>
+      <c r="AV24">
+        <v>39.07402376068953</v>
+      </c>
+      <c r="AW24">
+        <v>6.625696607289474</v>
+      </c>
+      <c r="AX24">
+        <v>-8.208602238787051</v>
+      </c>
+      <c r="AY24">
+        <v>15.96566561763412</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:53">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H25">
         <v>438</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N25">
         <v>5</v>
@@ -2135,48 +4522,147 @@
         <v>0.6</v>
       </c>
       <c r="R25" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S25">
+        <v>363.6064442429329</v>
+      </c>
+      <c r="T25">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U25">
+        <v>401.9330061999999</v>
+      </c>
+      <c r="V25" t="s">
+        <v>100</v>
+      </c>
+      <c r="W25">
+        <v>363.6064442429329</v>
+      </c>
+      <c r="X25">
+        <v>345.6064442429329</v>
+      </c>
+      <c r="Y25">
+        <v>18</v>
+      </c>
+      <c r="Z25">
+        <v>18</v>
+      </c>
+      <c r="AA25">
+        <v>438</v>
+      </c>
+      <c r="AB25">
+        <v>5.418483481116178</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0.1552663907510791</v>
+      </c>
+      <c r="AF25">
+        <v>0.1552663907510791</v>
+      </c>
+      <c r="AG25">
+        <v>0.1475800719914144</v>
+      </c>
+      <c r="AI25">
+        <v>91.32094398402383</v>
+      </c>
+      <c r="AJ25">
+        <v>254.2855002589091</v>
+      </c>
+      <c r="AL25">
+        <v>48.21460506706408</v>
+      </c>
+      <c r="AM25">
+        <v>1940.026215201192</v>
+      </c>
+      <c r="AN25">
+        <v>401.7970376227987</v>
+      </c>
+      <c r="AO25">
+        <v>2341.823252823991</v>
+      </c>
+      <c r="AP25">
+        <v>543.5811645410802</v>
+      </c>
+      <c r="AQ25">
+        <v>1820.932541832639</v>
+      </c>
+      <c r="AR25">
+        <v>2.033147619462582E-15</v>
+      </c>
+      <c r="AS25">
+        <v>254.2855002589091</v>
+      </c>
+      <c r="AT25">
+        <v>2.595312936243985E-16</v>
+      </c>
+      <c r="AU25">
+        <v>162.9556467443558</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>-14.0017</v>
+      </c>
+      <c r="AY25">
+        <v>14.79559999999999</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:53">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H26">
         <v>438</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N26">
         <v>5</v>
@@ -2191,48 +4677,147 @@
         <v>0.6</v>
       </c>
       <c r="R26" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S26">
+        <v>423.9500913287773</v>
+      </c>
+      <c r="T26">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U26">
+        <v>134.2683691000002</v>
+      </c>
+      <c r="V26" t="s">
+        <v>101</v>
+      </c>
+      <c r="W26">
+        <v>423.9500913287773</v>
+      </c>
+      <c r="X26">
+        <v>405.9500913287773</v>
+      </c>
+      <c r="Y26">
+        <v>18</v>
+      </c>
+      <c r="Z26">
+        <v>18</v>
+      </c>
+      <c r="AA26">
+        <v>438</v>
+      </c>
+      <c r="AB26">
+        <v>5.418483481116178</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0.1810087198927149</v>
+      </c>
+      <c r="AF26">
+        <v>0.1810087198927149</v>
+      </c>
+      <c r="AG26">
+        <v>0.173323482821868</v>
+      </c>
+      <c r="AI26">
+        <v>84.72854503252367</v>
+      </c>
+      <c r="AJ26">
+        <v>321.2215462962536</v>
+      </c>
+      <c r="AL26">
+        <v>48.21460506706408</v>
+      </c>
+      <c r="AM26">
+        <v>1940.026215201192</v>
+      </c>
+      <c r="AN26">
+        <v>402.1266467164841</v>
+      </c>
+      <c r="AO26">
+        <v>2342.152861917676</v>
+      </c>
+      <c r="AP26">
+        <v>543.5811645410802</v>
+      </c>
+      <c r="AQ26">
+        <v>1799.666273169153</v>
+      </c>
+      <c r="AR26">
+        <v>1.588396577705142E-15</v>
+      </c>
+      <c r="AS26">
+        <v>321.2215462962536</v>
+      </c>
+      <c r="AT26">
+        <v>1.155081991307179E-16</v>
+      </c>
+      <c r="AU26">
+        <v>155.1469126973442</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:53">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H27">
         <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N27">
         <v>6</v>
@@ -2247,48 +4832,147 @@
         <v>0.6</v>
       </c>
       <c r="R27" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S27">
+        <v>324.0117725946292</v>
+      </c>
+      <c r="T27">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U27">
+        <v>403.5792655</v>
+      </c>
+      <c r="V27" t="s">
+        <v>102</v>
+      </c>
+      <c r="W27">
+        <v>324.0117725946292</v>
+      </c>
+      <c r="X27">
+        <v>306.0117725946292</v>
+      </c>
+      <c r="Y27">
+        <v>18</v>
+      </c>
+      <c r="Z27">
+        <v>18</v>
+      </c>
+      <c r="AA27">
+        <v>438</v>
+      </c>
+      <c r="AB27">
+        <v>5.491140218512583</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0.1367790244311747</v>
+      </c>
+      <c r="AF27">
+        <v>0.1367790244311747</v>
+      </c>
+      <c r="AG27">
+        <v>0.1291804658354616</v>
+      </c>
+      <c r="AI27">
+        <v>74.34841981974792</v>
+      </c>
+      <c r="AJ27">
+        <v>231.6633527748813</v>
+      </c>
+      <c r="AL27">
+        <v>52.64977645305515</v>
+      </c>
+      <c r="AM27">
+        <v>1914.356505514158</v>
+      </c>
+      <c r="AN27">
+        <v>454.5138234131214</v>
+      </c>
+      <c r="AO27">
+        <v>2368.87032892728</v>
+      </c>
+      <c r="AP27">
+        <v>731.5835780580594</v>
+      </c>
+      <c r="AQ27">
+        <v>1660.355228991914</v>
+      </c>
+      <c r="AR27">
+        <v>1.423203333623807E-14</v>
+      </c>
+      <c r="AS27">
+        <v>231.6633527748813</v>
+      </c>
+      <c r="AT27">
+        <v>1.171093028810447E-15</v>
+      </c>
+      <c r="AU27">
+        <v>123.9140330329132</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:53">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H28">
         <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N28">
         <v>6</v>
@@ -2303,48 +4987,147 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S28">
+        <v>324.7399104210073</v>
+      </c>
+      <c r="T28">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U28">
+        <v>430.8181876999997</v>
+      </c>
+      <c r="V28" t="s">
+        <v>103</v>
+      </c>
+      <c r="W28">
+        <v>324.7399104210073</v>
+      </c>
+      <c r="X28">
+        <v>306.7399104210073</v>
+      </c>
+      <c r="Y28">
+        <v>18</v>
+      </c>
+      <c r="Z28">
+        <v>18</v>
+      </c>
+      <c r="AA28">
+        <v>438</v>
+      </c>
+      <c r="AB28">
+        <v>5.491140218512583</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0.1370864020944797</v>
+      </c>
+      <c r="AF28">
+        <v>0.1370864020944797</v>
+      </c>
+      <c r="AG28">
+        <v>0.1294878434987666</v>
+      </c>
+      <c r="AI28">
+        <v>74.58402516335003</v>
+      </c>
+      <c r="AJ28">
+        <v>232.1558852576573</v>
+      </c>
+      <c r="AL28">
+        <v>52.64977645305515</v>
+      </c>
+      <c r="AM28">
+        <v>1914.356505514158</v>
+      </c>
+      <c r="AN28">
+        <v>454.5138234131207</v>
+      </c>
+      <c r="AO28">
+        <v>2368.870328927279</v>
+      </c>
+      <c r="AP28">
+        <v>731.5835780580594</v>
+      </c>
+      <c r="AQ28">
+        <v>1660.475646678041</v>
+      </c>
+      <c r="AR28">
+        <v>0.2485325335685407</v>
+      </c>
+      <c r="AS28">
+        <v>232.1748234367152</v>
+      </c>
+      <c r="AT28">
+        <v>0.01893817905792292</v>
+      </c>
+      <c r="AU28">
+        <v>124.3067086055834</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>-8.017558999999991</v>
+      </c>
+      <c r="AY28">
+        <v>9.600137000000004</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:53">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H29">
         <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N29">
         <v>6</v>
@@ -2359,48 +5142,147 @@
         <v>0.6</v>
       </c>
       <c r="R29" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S29">
+        <v>325.8034620688479</v>
+      </c>
+      <c r="T29">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U29">
+        <v>438.0972065000005</v>
+      </c>
+      <c r="V29" t="s">
+        <v>104</v>
+      </c>
+      <c r="W29">
+        <v>325.8034620688479</v>
+      </c>
+      <c r="X29">
+        <v>307.8034620688479</v>
+      </c>
+      <c r="Y29">
+        <v>18</v>
+      </c>
+      <c r="Z29">
+        <v>18</v>
+      </c>
+      <c r="AA29">
+        <v>438</v>
+      </c>
+      <c r="AB29">
+        <v>5.491140218512583</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0.1375353720675732</v>
+      </c>
+      <c r="AF29">
+        <v>0.1375353720675732</v>
+      </c>
+      <c r="AG29">
+        <v>0.1299368134718601</v>
+      </c>
+      <c r="AI29">
+        <v>75.5996258387314</v>
+      </c>
+      <c r="AJ29">
+        <v>232.2038362301165</v>
+      </c>
+      <c r="AL29">
+        <v>52.64977645305515</v>
+      </c>
+      <c r="AM29">
+        <v>1914.356505514158</v>
+      </c>
+      <c r="AN29">
+        <v>454.5138234131211</v>
+      </c>
+      <c r="AO29">
+        <v>2368.870328927279</v>
+      </c>
+      <c r="AP29">
+        <v>731.5835780580594</v>
+      </c>
+      <c r="AQ29">
+        <v>1659.237679215873</v>
+      </c>
+      <c r="AR29">
+        <v>1.143645535947702E-15</v>
+      </c>
+      <c r="AS29">
+        <v>232.2038362301165</v>
+      </c>
+      <c r="AT29">
+        <v>1.751302530714581E-16</v>
+      </c>
+      <c r="AU29">
+        <v>125.9993763978857</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>-7.041984555032144</v>
+      </c>
+      <c r="AY29">
+        <v>11.58662029915128</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:53">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H30">
         <v>438</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N30">
         <v>6</v>
@@ -2415,48 +5297,147 @@
         <v>0.6</v>
       </c>
       <c r="R30" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S30">
+        <v>339.2751986035583</v>
+      </c>
+      <c r="T30">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U30">
+        <v>402.4439330000005</v>
+      </c>
+      <c r="V30" t="s">
+        <v>105</v>
+      </c>
+      <c r="W30">
+        <v>339.2751986035583</v>
+      </c>
+      <c r="X30">
+        <v>321.2751986035583</v>
+      </c>
+      <c r="Y30">
+        <v>18</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+      <c r="AA30">
+        <v>438</v>
+      </c>
+      <c r="AB30">
+        <v>5.491140218512583</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0.143222359814518</v>
+      </c>
+      <c r="AF30">
+        <v>0.143222359814518</v>
+      </c>
+      <c r="AG30">
+        <v>0.1356238012188049</v>
+      </c>
+      <c r="AI30">
+        <v>90.25993645212587</v>
+      </c>
+      <c r="AJ30">
+        <v>231.0152621514324</v>
+      </c>
+      <c r="AL30">
+        <v>52.64977645305515</v>
+      </c>
+      <c r="AM30">
+        <v>1914.356505514158</v>
+      </c>
+      <c r="AN30">
+        <v>454.5138234131209</v>
+      </c>
+      <c r="AO30">
+        <v>2368.870328927279</v>
+      </c>
+      <c r="AP30">
+        <v>731.5835780580594</v>
+      </c>
+      <c r="AQ30">
+        <v>1660.811495393546</v>
+      </c>
+      <c r="AR30">
+        <v>1.016573809731291E-15</v>
+      </c>
+      <c r="AS30">
+        <v>231.0152621514324</v>
+      </c>
+      <c r="AT30">
+        <v>1.701744557490181E-16</v>
+      </c>
+      <c r="AU30">
+        <v>150.4332274202098</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>-10.87220000000001</v>
+      </c>
+      <c r="AY30">
+        <v>13.324</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:53">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H31">
         <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N31">
         <v>6</v>
@@ -2471,48 +5452,147 @@
         <v>0.6</v>
       </c>
       <c r="R31" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S31">
+        <v>403.6833136437099</v>
+      </c>
+      <c r="T31">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U31">
+        <v>154.9311003000003</v>
+      </c>
+      <c r="V31" t="s">
+        <v>106</v>
+      </c>
+      <c r="W31">
+        <v>403.6833136437099</v>
+      </c>
+      <c r="X31">
+        <v>385.6833136437099</v>
+      </c>
+      <c r="Y31">
+        <v>18</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+      <c r="AA31">
+        <v>438</v>
+      </c>
+      <c r="AB31">
+        <v>5.491140218512583</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0.1704117396018525</v>
+      </c>
+      <c r="AF31">
+        <v>0.1704117396018525</v>
+      </c>
+      <c r="AG31">
+        <v>0.1628131810061394</v>
+      </c>
+      <c r="AI31">
+        <v>82.21243716376986</v>
+      </c>
+      <c r="AJ31">
+        <v>303.47087647994</v>
+      </c>
+      <c r="AL31">
+        <v>52.64977645305515</v>
+      </c>
+      <c r="AM31">
+        <v>1914.356505514158</v>
+      </c>
+      <c r="AN31">
+        <v>454.51382341312</v>
+      </c>
+      <c r="AO31">
+        <v>2368.870328927278</v>
+      </c>
+      <c r="AP31">
+        <v>731.5835780580594</v>
+      </c>
+      <c r="AQ31">
+        <v>1638.415648233313</v>
+      </c>
+      <c r="AR31">
+        <v>2.35082693500361E-15</v>
+      </c>
+      <c r="AS31">
+        <v>303.47087647994</v>
+      </c>
+      <c r="AT31">
+        <v>1.668388229358373E-16</v>
+      </c>
+      <c r="AU31">
+        <v>137.0207286062831</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:53">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H32">
         <v>438</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N32">
         <v>7</v>
@@ -2527,48 +5607,147 @@
         <v>0.6</v>
       </c>
       <c r="R32" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S32">
+        <v>349.3466742000579</v>
+      </c>
+      <c r="T32">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U32">
+        <v>353.4956071999995</v>
+      </c>
+      <c r="V32" t="s">
+        <v>107</v>
+      </c>
+      <c r="W32">
+        <v>349.3466742000579</v>
+      </c>
+      <c r="X32">
+        <v>331.3466742000579</v>
+      </c>
+      <c r="Y32">
+        <v>18</v>
+      </c>
+      <c r="Z32">
+        <v>18</v>
+      </c>
+      <c r="AA32">
+        <v>438</v>
+      </c>
+      <c r="AB32">
+        <v>5.584290155109154</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0.1508591983210136</v>
+      </c>
+      <c r="AF32">
+        <v>0.1508591983210136</v>
+      </c>
+      <c r="AG32">
+        <v>0.1430862158645578</v>
+      </c>
+      <c r="AI32">
+        <v>90.17803032633702</v>
+      </c>
+      <c r="AJ32">
+        <v>241.1686438737208</v>
+      </c>
+      <c r="AL32">
+        <v>51.36214605067065</v>
+      </c>
+      <c r="AM32">
+        <v>1882.423675707898</v>
+      </c>
+      <c r="AN32">
+        <v>433.2897715867271</v>
+      </c>
+      <c r="AO32">
+        <v>2315.713447294625</v>
+      </c>
+      <c r="AP32">
+        <v>633.4232165520983</v>
+      </c>
+      <c r="AQ32">
+        <v>1705.016765413764</v>
+      </c>
+      <c r="AR32">
+        <v>4.170494054422621E-13</v>
+      </c>
+      <c r="AS32">
+        <v>241.1686438737209</v>
+      </c>
+      <c r="AT32">
+        <v>4.641874247125972E-14</v>
+      </c>
+      <c r="AU32">
+        <v>150.2967172105617</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:53">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H33">
         <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N33">
         <v>7</v>
@@ -2583,48 +5762,147 @@
         <v>0.6</v>
       </c>
       <c r="R33" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S33">
+        <v>348.6393004243346</v>
+      </c>
+      <c r="T33">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U33">
+        <v>429.8869884000005</v>
+      </c>
+      <c r="V33" t="s">
+        <v>108</v>
+      </c>
+      <c r="W33">
+        <v>348.6393004243346</v>
+      </c>
+      <c r="X33">
+        <v>330.6393004243346</v>
+      </c>
+      <c r="Y33">
+        <v>18</v>
+      </c>
+      <c r="Z33">
+        <v>18</v>
+      </c>
+      <c r="AA33">
+        <v>438</v>
+      </c>
+      <c r="AB33">
+        <v>5.584290155109154</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0.1505537314349661</v>
+      </c>
+      <c r="AF33">
+        <v>0.1505537314349661</v>
+      </c>
+      <c r="AG33">
+        <v>0.1427807489785103</v>
+      </c>
+      <c r="AI33">
+        <v>88.38969901147976</v>
+      </c>
+      <c r="AJ33">
+        <v>242.2496014128548</v>
+      </c>
+      <c r="AL33">
+        <v>51.36214605067065</v>
+      </c>
+      <c r="AM33">
+        <v>1882.423675707898</v>
+      </c>
+      <c r="AN33">
+        <v>433.2897715867272</v>
+      </c>
+      <c r="AO33">
+        <v>2315.713447294625</v>
+      </c>
+      <c r="AP33">
+        <v>633.4232165520983</v>
+      </c>
+      <c r="AQ33">
+        <v>1706.286316944028</v>
+      </c>
+      <c r="AR33">
+        <v>1.277963261625902</v>
+      </c>
+      <c r="AS33">
+        <v>242.3469822133907</v>
+      </c>
+      <c r="AT33">
+        <v>0.09738080053589383</v>
+      </c>
+      <c r="AU33">
+        <v>147.3161650191329</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>-11.0681531</v>
+      </c>
+      <c r="AY33">
+        <v>11.78007790000001</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:53">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H34">
         <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N34">
         <v>7</v>
@@ -2639,48 +5917,147 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S34">
+        <v>351.0977252306352</v>
+      </c>
+      <c r="T34">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U34">
+        <v>416.0711200999995</v>
+      </c>
+      <c r="V34" t="s">
+        <v>109</v>
+      </c>
+      <c r="W34">
+        <v>351.0977252306352</v>
+      </c>
+      <c r="X34">
+        <v>333.0977252306352</v>
+      </c>
+      <c r="Y34">
+        <v>18</v>
+      </c>
+      <c r="Z34">
+        <v>18</v>
+      </c>
+      <c r="AA34">
+        <v>438</v>
+      </c>
+      <c r="AB34">
+        <v>5.584290155109154</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0.1516153588177379</v>
+      </c>
+      <c r="AF34">
+        <v>0.1516153588177379</v>
+      </c>
+      <c r="AG34">
+        <v>0.143842376361282</v>
+      </c>
+      <c r="AI34">
+        <v>91.48565821071588</v>
+      </c>
+      <c r="AJ34">
+        <v>241.6120670199194</v>
+      </c>
+      <c r="AL34">
+        <v>51.36214605067065</v>
+      </c>
+      <c r="AM34">
+        <v>1882.423675707898</v>
+      </c>
+      <c r="AN34">
+        <v>433.2897715867269</v>
+      </c>
+      <c r="AO34">
+        <v>2315.713447294625</v>
+      </c>
+      <c r="AP34">
+        <v>633.4232165520983</v>
+      </c>
+      <c r="AQ34">
+        <v>1706.320577012494</v>
+      </c>
+      <c r="AR34">
+        <v>1.280358546816351</v>
+      </c>
+      <c r="AS34">
+        <v>241.7485765233808</v>
+      </c>
+      <c r="AT34">
+        <v>0.1365095034614144</v>
+      </c>
+      <c r="AU34">
+        <v>152.4760970178598</v>
+      </c>
+      <c r="AV34">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="AW34">
+        <v>3.765161721068549E-17</v>
+      </c>
+      <c r="AX34">
+        <v>-10.38856878512391</v>
+      </c>
+      <c r="AY34">
+        <v>10.4019490941666</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:53">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H35">
         <v>438</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N35">
         <v>7</v>
@@ -2695,48 +6072,147 @@
         <v>0.6</v>
       </c>
       <c r="R35" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S35">
+        <v>360.701470974481</v>
+      </c>
+      <c r="T35">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U35">
+        <v>354.7792234999997</v>
+      </c>
+      <c r="V35" t="s">
+        <v>110</v>
+      </c>
+      <c r="W35">
+        <v>360.701470974481</v>
+      </c>
+      <c r="X35">
+        <v>342.701470974481</v>
+      </c>
+      <c r="Y35">
+        <v>18</v>
+      </c>
+      <c r="Z35">
+        <v>18</v>
+      </c>
+      <c r="AA35">
+        <v>438</v>
+      </c>
+      <c r="AB35">
+        <v>5.584290155109154</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0.1557625669945809</v>
+      </c>
+      <c r="AF35">
+        <v>0.1557625669945809</v>
+      </c>
+      <c r="AG35">
+        <v>0.1479895845381251</v>
+      </c>
+      <c r="AI35">
+        <v>100.81548</v>
+      </c>
+      <c r="AJ35">
+        <v>241.8859909744809</v>
+      </c>
+      <c r="AL35">
+        <v>51.36214605067065</v>
+      </c>
+      <c r="AM35">
+        <v>1882.423675707898</v>
+      </c>
+      <c r="AN35">
+        <v>433.2897715867272</v>
+      </c>
+      <c r="AO35">
+        <v>2315.713447294625</v>
+      </c>
+      <c r="AP35">
+        <v>633.4232165520983</v>
+      </c>
+      <c r="AQ35">
+        <v>1705.655681379165</v>
+      </c>
+      <c r="AR35">
+        <v>1.088164488979232</v>
+      </c>
+      <c r="AS35">
+        <v>242.019182307932</v>
+      </c>
+      <c r="AT35">
+        <v>0.133191333451058</v>
+      </c>
+      <c r="AU35">
+        <v>168.0258000000001</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>-13.6426</v>
+      </c>
+      <c r="AY35">
+        <v>13.8941</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:53">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H36">
         <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N36">
         <v>7</v>
@@ -2751,48 +6227,147 @@
         <v>0.6</v>
       </c>
       <c r="R36" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S36">
+        <v>413.2309788905768</v>
+      </c>
+      <c r="T36">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U36">
+        <v>126.2337168000004</v>
+      </c>
+      <c r="V36" t="s">
+        <v>111</v>
+      </c>
+      <c r="W36">
+        <v>413.2309788905768</v>
+      </c>
+      <c r="X36">
+        <v>395.2309788905768</v>
+      </c>
+      <c r="Y36">
+        <v>18</v>
+      </c>
+      <c r="Z36">
+        <v>18</v>
+      </c>
+      <c r="AA36">
+        <v>438</v>
+      </c>
+      <c r="AB36">
+        <v>5.584290155109154</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0.1783936994278009</v>
+      </c>
+      <c r="AF36">
+        <v>0.1783936994278009</v>
+      </c>
+      <c r="AG36">
+        <v>0.1706230172821365</v>
+      </c>
+      <c r="AI36">
+        <v>94.98917859907323</v>
+      </c>
+      <c r="AJ36">
+        <v>300.2418002915035</v>
+      </c>
+      <c r="AL36">
+        <v>51.36214605067065</v>
+      </c>
+      <c r="AM36">
+        <v>1882.423675707898</v>
+      </c>
+      <c r="AN36">
+        <v>433.9752790534992</v>
+      </c>
+      <c r="AO36">
+        <v>2316.398954761397</v>
+      </c>
+      <c r="AP36">
+        <v>633.4232165520983</v>
+      </c>
+      <c r="AQ36">
+        <v>1686.238231290059</v>
+      </c>
+      <c r="AR36">
+        <v>5.281418620869597E-15</v>
+      </c>
+      <c r="AS36">
+        <v>300.2418002915035</v>
+      </c>
+      <c r="AT36">
+        <v>4.128560384771206E-16</v>
+      </c>
+      <c r="AU36">
+        <v>158.315297665122</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:53">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H37">
         <v>438</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J37" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N37">
         <v>8</v>
@@ -2807,48 +6382,147 @@
         <v>0.6</v>
       </c>
       <c r="R37" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S37">
+        <v>295.3231726571147</v>
+      </c>
+      <c r="T37">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U37">
+        <v>422.1882677999993</v>
+      </c>
+      <c r="V37" t="s">
+        <v>112</v>
+      </c>
+      <c r="W37">
+        <v>295.3231726571147</v>
+      </c>
+      <c r="X37">
+        <v>277.3231726571147</v>
+      </c>
+      <c r="Y37">
+        <v>18</v>
+      </c>
+      <c r="Z37">
+        <v>18</v>
+      </c>
+      <c r="AA37">
+        <v>438</v>
+      </c>
+      <c r="AB37">
+        <v>5.681901500038969</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0.1320711571256208</v>
+      </c>
+      <c r="AF37">
+        <v>0.1320711571256208</v>
+      </c>
+      <c r="AG37">
+        <v>0.1240213965637522</v>
+      </c>
+      <c r="AI37">
+        <v>79.01450724489816</v>
+      </c>
+      <c r="AJ37">
+        <v>198.3086654122166</v>
+      </c>
+      <c r="AL37">
+        <v>45.21013412816691</v>
+      </c>
+      <c r="AM37">
+        <v>1850.084870342772</v>
+      </c>
+      <c r="AN37">
+        <v>386.0064843821284</v>
+      </c>
+      <c r="AO37">
+        <v>2236.091354724901</v>
+      </c>
+      <c r="AP37">
+        <v>874.5681693316769</v>
+      </c>
+      <c r="AQ37">
+        <v>1384.512925203836</v>
+      </c>
+      <c r="AR37">
+        <v>3.341986399491619E-14</v>
+      </c>
+      <c r="AS37">
+        <v>198.3086654122166</v>
+      </c>
+      <c r="AT37">
+        <v>2.597905199458801E-15</v>
+      </c>
+      <c r="AU37">
+        <v>131.6908454081636</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:53">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H38">
         <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N38">
         <v>8</v>
@@ -2863,48 +6537,147 @@
         <v>0.6</v>
       </c>
       <c r="R38" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S38">
+        <v>296.4111957556212</v>
+      </c>
+      <c r="T38">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U38">
+        <v>436.5450061000001</v>
+      </c>
+      <c r="V38" t="s">
+        <v>113</v>
+      </c>
+      <c r="W38">
+        <v>296.4111957556212</v>
+      </c>
+      <c r="X38">
+        <v>278.4111957556212</v>
+      </c>
+      <c r="Y38">
+        <v>18</v>
+      </c>
+      <c r="Z38">
+        <v>18</v>
+      </c>
+      <c r="AA38">
+        <v>438</v>
+      </c>
+      <c r="AB38">
+        <v>5.681901500038969</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0.1325577307605519</v>
+      </c>
+      <c r="AF38">
+        <v>0.1325577307605519</v>
+      </c>
+      <c r="AG38">
+        <v>0.1245079701986832</v>
+      </c>
+      <c r="AI38">
+        <v>79.83322746894214</v>
+      </c>
+      <c r="AJ38">
+        <v>198.5779682866791</v>
+      </c>
+      <c r="AL38">
+        <v>45.21013412816691</v>
+      </c>
+      <c r="AM38">
+        <v>1850.084870342772</v>
+      </c>
+      <c r="AN38">
+        <v>386.0064843821286</v>
+      </c>
+      <c r="AO38">
+        <v>2236.091354724901</v>
+      </c>
+      <c r="AP38">
+        <v>874.5681693316769</v>
+      </c>
+      <c r="AQ38">
+        <v>1385.131404745712</v>
+      </c>
+      <c r="AR38">
+        <v>4.05902717853948</v>
+      </c>
+      <c r="AS38">
+        <v>198.9266773438261</v>
+      </c>
+      <c r="AT38">
+        <v>0.3487090571470204</v>
+      </c>
+      <c r="AU38">
+        <v>133.0553791149036</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>-14.01292430000001</v>
+      </c>
+      <c r="AY38">
+        <v>13.8955929</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:53">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0</v>
+      <c r="B39" t="s">
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H39">
         <v>438</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N39">
         <v>8</v>
@@ -2919,48 +6692,147 @@
         <v>0.6</v>
       </c>
       <c r="R39" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S39">
+        <v>298.806365469088</v>
+      </c>
+      <c r="T39">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U39">
+        <v>457.6714165000003</v>
+      </c>
+      <c r="V39" t="s">
+        <v>114</v>
+      </c>
+      <c r="W39">
+        <v>298.806365469088</v>
+      </c>
+      <c r="X39">
+        <v>280.806365469088</v>
+      </c>
+      <c r="Y39">
+        <v>18</v>
+      </c>
+      <c r="Z39">
+        <v>18</v>
+      </c>
+      <c r="AA39">
+        <v>438</v>
+      </c>
+      <c r="AB39">
+        <v>5.681901500038969</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0.1336288720215768</v>
+      </c>
+      <c r="AF39">
+        <v>0.1336288720215768</v>
+      </c>
+      <c r="AG39">
+        <v>0.1255791114597081</v>
+      </c>
+      <c r="AI39">
+        <v>82.1825902452204</v>
+      </c>
+      <c r="AJ39">
+        <v>198.6237752238675</v>
+      </c>
+      <c r="AL39">
+        <v>45.21013412816691</v>
+      </c>
+      <c r="AM39">
+        <v>1850.084870342772</v>
+      </c>
+      <c r="AN39">
+        <v>386.0064843821284</v>
+      </c>
+      <c r="AO39">
+        <v>2236.091354724901</v>
+      </c>
+      <c r="AP39">
+        <v>874.5681693316769</v>
+      </c>
+      <c r="AQ39">
+        <v>1391.357812750507</v>
+      </c>
+      <c r="AR39">
+        <v>6.693625183256131</v>
+      </c>
+      <c r="AS39">
+        <v>199.1698191503833</v>
+      </c>
+      <c r="AT39">
+        <v>0.5460439265157133</v>
+      </c>
+      <c r="AU39">
+        <v>136.970983742034</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>-12.19819991079334</v>
+      </c>
+      <c r="AY39">
+        <v>10.3665787179452</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:53">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H40">
         <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N40">
         <v>8</v>
@@ -2975,48 +6847,147 @@
         <v>0.6</v>
       </c>
       <c r="R40" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S40">
+        <v>311.4044660681467</v>
+      </c>
+      <c r="T40">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U40">
+        <v>441.0367387000006</v>
+      </c>
+      <c r="V40" t="s">
+        <v>115</v>
+      </c>
+      <c r="W40">
+        <v>311.4044660681467</v>
+      </c>
+      <c r="X40">
+        <v>293.4044660681467</v>
+      </c>
+      <c r="Y40">
+        <v>18</v>
+      </c>
+      <c r="Z40">
+        <v>18</v>
+      </c>
+      <c r="AA40">
+        <v>438</v>
+      </c>
+      <c r="AB40">
+        <v>5.681901500038969</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0.1392628549858411</v>
+      </c>
+      <c r="AF40">
+        <v>0.1392628549858411</v>
+      </c>
+      <c r="AG40">
+        <v>0.1312130944239724</v>
+      </c>
+      <c r="AI40">
+        <v>97.04709685664167</v>
+      </c>
+      <c r="AJ40">
+        <v>196.3573692115051</v>
+      </c>
+      <c r="AL40">
+        <v>45.21013412816691</v>
+      </c>
+      <c r="AM40">
+        <v>1850.084870342772</v>
+      </c>
+      <c r="AN40">
+        <v>386.0064843821283</v>
+      </c>
+      <c r="AO40">
+        <v>2236.091354724901</v>
+      </c>
+      <c r="AP40">
+        <v>874.5681693316769</v>
+      </c>
+      <c r="AQ40">
+        <v>1385.092764238944</v>
+      </c>
+      <c r="AR40">
+        <v>0.6524976294554854</v>
+      </c>
+      <c r="AS40">
+        <v>196.4296617717826</v>
+      </c>
+      <c r="AT40">
+        <v>0.07229256027754208</v>
+      </c>
+      <c r="AU40">
+        <v>161.7451614277362</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>-13.2394</v>
+      </c>
+      <c r="AY40">
+        <v>13.56309999999999</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:53">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H41">
         <v>438</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N41">
         <v>8</v>
@@ -3031,48 +7002,147 @@
         <v>0.6</v>
       </c>
       <c r="R41" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S41">
+        <v>355.9785761221524</v>
+      </c>
+      <c r="T41">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U41">
+        <v>182.8230970999994</v>
+      </c>
+      <c r="V41" t="s">
+        <v>116</v>
+      </c>
+      <c r="W41">
+        <v>355.9785761221524</v>
+      </c>
+      <c r="X41">
+        <v>337.9785761221524</v>
+      </c>
+      <c r="Y41">
+        <v>18</v>
+      </c>
+      <c r="Z41">
+        <v>18</v>
+      </c>
+      <c r="AA41">
+        <v>438</v>
+      </c>
+      <c r="AB41">
+        <v>5.681901500038969</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0.1591445704995015</v>
+      </c>
+      <c r="AF41">
+        <v>0.1591445704995015</v>
+      </c>
+      <c r="AG41">
+        <v>0.1510974506413444</v>
+      </c>
+      <c r="AI41">
+        <v>92.99575118096955</v>
+      </c>
+      <c r="AJ41">
+        <v>244.9828249411829</v>
+      </c>
+      <c r="AL41">
+        <v>45.21013412816691</v>
+      </c>
+      <c r="AM41">
+        <v>1850.084870342772</v>
+      </c>
+      <c r="AN41">
+        <v>386.7402692448054</v>
+      </c>
+      <c r="AO41">
+        <v>2236.825139587578</v>
+      </c>
+      <c r="AP41">
+        <v>874.5681693316769</v>
+      </c>
+      <c r="AQ41">
+        <v>1368.948086184161</v>
+      </c>
+      <c r="AR41">
+        <v>6.194746653050054E-15</v>
+      </c>
+      <c r="AS41">
+        <v>244.9828249411829</v>
+      </c>
+      <c r="AT41">
+        <v>4.73316765810889E-16</v>
+      </c>
+      <c r="AU41">
+        <v>154.9929186349493</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:53">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H42">
         <v>438</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K42" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N42">
         <v>9</v>
@@ -3087,48 +7157,147 @@
         <v>0.6</v>
       </c>
       <c r="R42" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S42">
+        <v>326.9584203461501</v>
+      </c>
+      <c r="T42">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U42">
+        <v>368.2076586000003</v>
+      </c>
+      <c r="V42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W42">
+        <v>326.9584203461501</v>
+      </c>
+      <c r="X42">
+        <v>308.9584203461501</v>
+      </c>
+      <c r="Y42">
+        <v>18</v>
+      </c>
+      <c r="Z42">
+        <v>18</v>
+      </c>
+      <c r="AA42">
+        <v>438</v>
+      </c>
+      <c r="AB42">
+        <v>5.421831338216494</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0.1339686350661741</v>
+      </c>
+      <c r="AF42">
+        <v>0.1339686350661741</v>
+      </c>
+      <c r="AG42">
+        <v>0.1265932769743466</v>
+      </c>
+      <c r="AI42">
+        <v>75.13918015189913</v>
+      </c>
+      <c r="AJ42">
+        <v>241.2133712084344</v>
+      </c>
+      <c r="AL42">
+        <v>55.08196721311476</v>
+      </c>
+      <c r="AM42">
+        <v>1938.828293293593</v>
+      </c>
+      <c r="AN42">
+        <v>501.7311718726248</v>
+      </c>
+      <c r="AO42">
+        <v>2440.559465166217</v>
+      </c>
+      <c r="AP42">
+        <v>754.991916392118</v>
+      </c>
+      <c r="AQ42">
+        <v>1715.657109628614</v>
+      </c>
+      <c r="AR42">
+        <v>1.207181399055908E-14</v>
+      </c>
+      <c r="AS42">
+        <v>241.2133712084344</v>
+      </c>
+      <c r="AT42">
+        <v>1.074645588612191E-15</v>
+      </c>
+      <c r="AU42">
+        <v>128.5634914383608</v>
+      </c>
+      <c r="AV42">
+        <v>43.60574714815531</v>
+      </c>
+      <c r="AW42">
+        <v>7.394131014183445</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:53">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="B43" t="s">
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H43">
         <v>438</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J43" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N43">
         <v>9</v>
@@ -3143,48 +7312,147 @@
         <v>0.6</v>
       </c>
       <c r="R43" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S43">
+        <v>333.916141582332</v>
+      </c>
+      <c r="T43">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U43">
+        <v>495.7552685999999</v>
+      </c>
+      <c r="V43" t="s">
+        <v>118</v>
+      </c>
+      <c r="W43">
+        <v>333.916141582332</v>
+      </c>
+      <c r="X43">
+        <v>315.916141582332</v>
+      </c>
+      <c r="Y43">
+        <v>18</v>
+      </c>
+      <c r="Z43">
+        <v>18</v>
+      </c>
+      <c r="AA43">
+        <v>438</v>
+      </c>
+      <c r="AB43">
+        <v>5.421831338216494</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0.136819506489505</v>
+      </c>
+      <c r="AF43">
+        <v>0.136819506489505</v>
+      </c>
+      <c r="AG43">
+        <v>0.1294441483976774</v>
+      </c>
+      <c r="AI43">
+        <v>76.537077124276</v>
+      </c>
+      <c r="AJ43">
+        <v>240.3042426593117</v>
+      </c>
+      <c r="AL43">
+        <v>55.08196721311476</v>
+      </c>
+      <c r="AM43">
+        <v>1938.828293293593</v>
+      </c>
+      <c r="AN43">
+        <v>501.7311718726239</v>
+      </c>
+      <c r="AO43">
+        <v>2440.559465166217</v>
+      </c>
+      <c r="AP43">
+        <v>754.991916392118</v>
+      </c>
+      <c r="AQ43">
+        <v>1707.85173934604</v>
+      </c>
+      <c r="AR43">
+        <v>0.3756926950819681</v>
+      </c>
+      <c r="AS43">
+        <v>240.3328704426769</v>
+      </c>
+      <c r="AT43">
+        <v>0.02862778336524601</v>
+      </c>
+      <c r="AU43">
+        <v>131.8801038898052</v>
+      </c>
+      <c r="AV43">
+        <v>5.456095737761869</v>
+      </c>
+      <c r="AW43">
+        <v>0.9251782012556528</v>
+      </c>
+      <c r="AX43">
+        <v>-5.538125600000001</v>
+      </c>
+      <c r="AY43">
+        <v>11.38969609999999</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:53">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H44">
         <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N44">
         <v>9</v>
@@ -3199,48 +7467,147 @@
         <v>0.6</v>
       </c>
       <c r="R44" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S44">
+        <v>336.6452896968507</v>
+      </c>
+      <c r="T44">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U44">
+        <v>466.1001023999997</v>
+      </c>
+      <c r="V44" t="s">
+        <v>119</v>
+      </c>
+      <c r="W44">
+        <v>336.6452896968507</v>
+      </c>
+      <c r="X44">
+        <v>318.6452896968507</v>
+      </c>
+      <c r="Y44">
+        <v>18</v>
+      </c>
+      <c r="Z44">
+        <v>18</v>
+      </c>
+      <c r="AA44">
+        <v>438</v>
+      </c>
+      <c r="AB44">
+        <v>5.421831338216494</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0.1379377534134056</v>
+      </c>
+      <c r="AF44">
+        <v>0.1379377534134056</v>
+      </c>
+      <c r="AG44">
+        <v>0.130562395321578</v>
+      </c>
+      <c r="AI44">
+        <v>78.03338679276368</v>
+      </c>
+      <c r="AJ44">
+        <v>240.611902904087</v>
+      </c>
+      <c r="AL44">
+        <v>55.08196721311476</v>
+      </c>
+      <c r="AM44">
+        <v>1938.828293293593</v>
+      </c>
+      <c r="AN44">
+        <v>501.731171872624</v>
+      </c>
+      <c r="AO44">
+        <v>2440.559465166217</v>
+      </c>
+      <c r="AP44">
+        <v>754.991916392118</v>
+      </c>
+      <c r="AQ44">
+        <v>1708.501366924026</v>
+      </c>
+      <c r="AR44">
+        <v>0.2273709634343388</v>
+      </c>
+      <c r="AS44">
+        <v>240.6292285715007</v>
+      </c>
+      <c r="AT44">
+        <v>0.01732566741369686</v>
+      </c>
+      <c r="AU44">
+        <v>135.5501150898345</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>-10.17783659383733</v>
+      </c>
+      <c r="AY44">
+        <v>11.73718456124114</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:53">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>0</v>
+      <c r="B45" t="s">
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H45">
         <v>438</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J45" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N45">
         <v>9</v>
@@ -3255,48 +7622,147 @@
         <v>0.6</v>
       </c>
       <c r="R45" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S45">
+        <v>345.1521185130114</v>
+      </c>
+      <c r="T45">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U45">
+        <v>342.8146615999995</v>
+      </c>
+      <c r="V45" t="s">
+        <v>120</v>
+      </c>
+      <c r="W45">
+        <v>345.1521185130114</v>
+      </c>
+      <c r="X45">
+        <v>327.1521185130114</v>
+      </c>
+      <c r="Y45">
+        <v>18</v>
+      </c>
+      <c r="Z45">
+        <v>18</v>
+      </c>
+      <c r="AA45">
+        <v>438</v>
+      </c>
+      <c r="AB45">
+        <v>5.421831338216494</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0.1414233594547981</v>
+      </c>
+      <c r="AF45">
+        <v>0.1414233594547981</v>
+      </c>
+      <c r="AG45">
+        <v>0.1340480013629705</v>
+      </c>
+      <c r="AI45">
+        <v>87.59415548390686</v>
+      </c>
+      <c r="AJ45">
+        <v>239.5579630291046</v>
+      </c>
+      <c r="AL45">
+        <v>55.08196721311476</v>
+      </c>
+      <c r="AM45">
+        <v>1938.828293293593</v>
+      </c>
+      <c r="AN45">
+        <v>501.7311718726235</v>
+      </c>
+      <c r="AO45">
+        <v>2440.559465166216</v>
+      </c>
+      <c r="AP45">
+        <v>754.991916392118</v>
+      </c>
+      <c r="AQ45">
+        <v>1707.800582987379</v>
+      </c>
+      <c r="AR45">
+        <v>0.1962700777308994</v>
+      </c>
+      <c r="AS45">
+        <v>239.5729188090277</v>
+      </c>
+      <c r="AT45">
+        <v>0.01495577992309482</v>
+      </c>
+      <c r="AU45">
+        <v>156.3602816665642</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>-16.0202</v>
+      </c>
+      <c r="AY45">
+        <v>13.748</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:53">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>0</v>
+      <c r="B46" t="s">
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H46">
         <v>438</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J46" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L46" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N46">
         <v>9</v>
@@ -3311,7 +7777,106 @@
         <v>0.6</v>
       </c>
       <c r="R46" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S46">
+        <v>408.7374873318741</v>
+      </c>
+      <c r="T46">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U46">
+        <v>170.2523075999998</v>
+      </c>
+      <c r="V46" t="s">
+        <v>121</v>
+      </c>
+      <c r="W46">
+        <v>408.7374873318741</v>
+      </c>
+      <c r="X46">
+        <v>390.7374873318741</v>
+      </c>
+      <c r="Y46">
+        <v>18</v>
+      </c>
+      <c r="Z46">
+        <v>18</v>
+      </c>
+      <c r="AA46">
+        <v>438</v>
+      </c>
+      <c r="AB46">
+        <v>5.421831338216494</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0.1674676623696527</v>
+      </c>
+      <c r="AF46">
+        <v>0.1674676623696527</v>
+      </c>
+      <c r="AG46">
+        <v>0.1600927138609386</v>
+      </c>
+      <c r="AI46">
+        <v>80.52029826393562</v>
+      </c>
+      <c r="AJ46">
+        <v>310.2171890679385</v>
+      </c>
+      <c r="AL46">
+        <v>55.08196721311476</v>
+      </c>
+      <c r="AM46">
+        <v>1938.828293293593</v>
+      </c>
+      <c r="AN46">
+        <v>501.8667134215832</v>
+      </c>
+      <c r="AO46">
+        <v>2440.695006715176</v>
+      </c>
+      <c r="AP46">
+        <v>754.991916392118</v>
+      </c>
+      <c r="AQ46">
+        <v>1686.973496120299</v>
+      </c>
+      <c r="AR46">
+        <v>1.90607589324617E-15</v>
+      </c>
+      <c r="AS46">
+        <v>310.2171890679385</v>
+      </c>
+      <c r="AT46">
+        <v>1.382286237782123E-16</v>
+      </c>
+      <c r="AU46">
+        <v>140.4113949092973</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
